--- a/Practice_problem/sheets.xlsx
+++ b/Practice_problem/sheets.xlsx
@@ -7863,7 +7863,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Practice_problem/sheets.xlsx
+++ b/Practice_problem/sheets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,10 +21,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,63 +370,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Emai</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Data01</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Data02</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Data03</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Data04</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Data05</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Data06</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Data07</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data08</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Data09</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Data10</t>
         </is>
       </c>
     </row>
@@ -456,6 +480,21 @@
       <c r="J2" t="n">
         <v>13</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +531,21 @@
       <c r="J3" t="n">
         <v>14</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +582,21 @@
       <c r="J4" t="n">
         <v>15</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -564,6 +633,21 @@
       <c r="J5" t="n">
         <v>16</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -600,6 +684,21 @@
       <c r="J6" t="n">
         <v>17</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -636,6 +735,21 @@
       <c r="J7" t="n">
         <v>18</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -672,6 +786,21 @@
       <c r="J8" t="n">
         <v>19</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -708,6 +837,21 @@
       <c r="J9" t="n">
         <v>20</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -744,6 +888,21 @@
       <c r="J10" t="n">
         <v>21</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -780,6 +939,21 @@
       <c r="J11" t="n">
         <v>22</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +990,21 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -852,6 +1041,21 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -888,6 +1092,21 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -924,6 +1143,21 @@
       <c r="J15" t="n">
         <v>26</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -960,6 +1194,21 @@
       <c r="J16" t="n">
         <v>27</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -996,6 +1245,21 @@
       <c r="J17" t="n">
         <v>28</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1032,6 +1296,21 @@
       <c r="J18" t="n">
         <v>29</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1068,6 +1347,21 @@
       <c r="J19" t="n">
         <v>30</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1104,6 +1398,21 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1140,6 +1449,21 @@
       <c r="J21" t="n">
         <v>32</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1176,6 +1500,21 @@
       <c r="J22" t="n">
         <v>33</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1212,6 +1551,21 @@
       <c r="J23" t="n">
         <v>34</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1248,6 +1602,21 @@
       <c r="J24" t="n">
         <v>35</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1284,6 +1653,21 @@
       <c r="J25" t="n">
         <v>36</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1320,6 +1704,21 @@
       <c r="J26" t="n">
         <v>37</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1356,6 +1755,21 @@
       <c r="J27" t="n">
         <v>38</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1392,6 +1806,21 @@
       <c r="J28" t="n">
         <v>39</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1428,6 +1857,21 @@
       <c r="J29" t="n">
         <v>40</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1464,6 +1908,21 @@
       <c r="J30" t="n">
         <v>41</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1500,6 +1959,21 @@
       <c r="J31" t="n">
         <v>42</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1536,6 +2010,21 @@
       <c r="J32" t="n">
         <v>43</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1572,6 +2061,21 @@
       <c r="J33" t="n">
         <v>44</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1608,6 +2112,21 @@
       <c r="J34" t="n">
         <v>45</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1644,6 +2163,21 @@
       <c r="J35" t="n">
         <v>46</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1680,6 +2214,21 @@
       <c r="J36" t="n">
         <v>47</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1716,6 +2265,21 @@
       <c r="J37" t="n">
         <v>48</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1752,6 +2316,21 @@
       <c r="J38" t="n">
         <v>49</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1788,6 +2367,21 @@
       <c r="J39" t="n">
         <v>50</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1824,6 +2418,21 @@
       <c r="J40" t="n">
         <v>51</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1860,6 +2469,21 @@
       <c r="J41" t="n">
         <v>52</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1896,6 +2520,21 @@
       <c r="J42" t="n">
         <v>53</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1932,6 +2571,21 @@
       <c r="J43" t="n">
         <v>54</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1968,6 +2622,21 @@
       <c r="J44" t="n">
         <v>55</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2003,6 +2672,21 @@
       </c>
       <c r="J45" t="n">
         <v>56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2017,63 +2701,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Emai</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Data08</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Data09</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Data10</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Data11</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Data12</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Data13</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Data14</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Data15</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Data16</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Data17</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data18</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Data19</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Data20</t>
         </is>
       </c>
     </row>
@@ -2112,6 +2811,21 @@
       <c r="J2" t="n">
         <v>13</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2148,6 +2862,21 @@
       <c r="J3" t="n">
         <v>14</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2184,6 +2913,21 @@
       <c r="J4" t="n">
         <v>15</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2220,6 +2964,21 @@
       <c r="J5" t="n">
         <v>16</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2256,6 +3015,21 @@
       <c r="J6" t="n">
         <v>17</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2292,6 +3066,21 @@
       <c r="J7" t="n">
         <v>18</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2328,6 +3117,21 @@
       <c r="J8" t="n">
         <v>19</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2364,6 +3168,21 @@
       <c r="J9" t="n">
         <v>20</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2400,6 +3219,21 @@
       <c r="J10" t="n">
         <v>21</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2436,6 +3270,21 @@
       <c r="J11" t="n">
         <v>22</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2472,6 +3321,21 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2508,6 +3372,21 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2544,6 +3423,21 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2580,6 +3474,21 @@
       <c r="J15" t="n">
         <v>26</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2616,6 +3525,21 @@
       <c r="J16" t="n">
         <v>27</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2652,6 +3576,21 @@
       <c r="J17" t="n">
         <v>28</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2688,6 +3627,21 @@
       <c r="J18" t="n">
         <v>29</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2724,6 +3678,21 @@
       <c r="J19" t="n">
         <v>30</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2760,6 +3729,21 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2796,6 +3780,21 @@
       <c r="J21" t="n">
         <v>32</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2832,6 +3831,21 @@
       <c r="J22" t="n">
         <v>33</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2868,6 +3882,21 @@
       <c r="J23" t="n">
         <v>34</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2904,6 +3933,21 @@
       <c r="J24" t="n">
         <v>35</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2940,6 +3984,21 @@
       <c r="J25" t="n">
         <v>36</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2976,6 +4035,21 @@
       <c r="J26" t="n">
         <v>37</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3012,6 +4086,21 @@
       <c r="J27" t="n">
         <v>38</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3048,6 +4137,21 @@
       <c r="J28" t="n">
         <v>39</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3084,6 +4188,21 @@
       <c r="J29" t="n">
         <v>40</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3120,6 +4239,21 @@
       <c r="J30" t="n">
         <v>41</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3156,6 +4290,21 @@
       <c r="J31" t="n">
         <v>42</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3192,6 +4341,21 @@
       <c r="J32" t="n">
         <v>43</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3228,6 +4392,21 @@
       <c r="J33" t="n">
         <v>44</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3264,6 +4443,21 @@
       <c r="J34" t="n">
         <v>45</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3300,6 +4494,21 @@
       <c r="J35" t="n">
         <v>46</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3336,6 +4545,21 @@
       <c r="J36" t="n">
         <v>47</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3372,6 +4596,21 @@
       <c r="J37" t="n">
         <v>48</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3408,6 +4647,21 @@
       <c r="J38" t="n">
         <v>49</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3444,6 +4698,21 @@
       <c r="J39" t="n">
         <v>50</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3480,6 +4749,21 @@
       <c r="J40" t="n">
         <v>51</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3516,6 +4800,21 @@
       <c r="J41" t="n">
         <v>52</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3552,6 +4851,21 @@
       <c r="J42" t="n">
         <v>53</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3588,6 +4902,21 @@
       <c r="J43" t="n">
         <v>54</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3624,6 +4953,21 @@
       <c r="J44" t="n">
         <v>55</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3659,6 +5003,21 @@
       </c>
       <c r="J45" t="n">
         <v>56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3673,63 +5032,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Emai</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Data15</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Data16</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Data17</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Data18</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Data19</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Data20</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Data21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Data22</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data23</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Data24</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Data25</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Data26</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Data27</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data28</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Data29</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Data30</t>
         </is>
       </c>
     </row>
@@ -3768,6 +5142,21 @@
       <c r="J2" t="n">
         <v>13</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3804,6 +5193,21 @@
       <c r="J3" t="n">
         <v>14</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3840,6 +5244,21 @@
       <c r="J4" t="n">
         <v>15</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3876,6 +5295,21 @@
       <c r="J5" t="n">
         <v>16</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3912,6 +5346,21 @@
       <c r="J6" t="n">
         <v>17</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3948,6 +5397,21 @@
       <c r="J7" t="n">
         <v>18</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3984,6 +5448,21 @@
       <c r="J8" t="n">
         <v>19</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4020,6 +5499,21 @@
       <c r="J9" t="n">
         <v>20</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4056,6 +5550,21 @@
       <c r="J10" t="n">
         <v>21</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4092,6 +5601,21 @@
       <c r="J11" t="n">
         <v>22</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4128,6 +5652,21 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4164,6 +5703,21 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4200,6 +5754,21 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4236,6 +5805,21 @@
       <c r="J15" t="n">
         <v>26</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4272,6 +5856,21 @@
       <c r="J16" t="n">
         <v>27</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4308,6 +5907,21 @@
       <c r="J17" t="n">
         <v>28</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4344,6 +5958,21 @@
       <c r="J18" t="n">
         <v>29</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4380,6 +6009,21 @@
       <c r="J19" t="n">
         <v>30</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4416,6 +6060,21 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4452,6 +6111,21 @@
       <c r="J21" t="n">
         <v>32</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4488,6 +6162,21 @@
       <c r="J22" t="n">
         <v>33</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4524,6 +6213,21 @@
       <c r="J23" t="n">
         <v>34</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4560,6 +6264,21 @@
       <c r="J24" t="n">
         <v>35</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4596,6 +6315,21 @@
       <c r="J25" t="n">
         <v>36</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4632,6 +6366,21 @@
       <c r="J26" t="n">
         <v>37</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4668,6 +6417,21 @@
       <c r="J27" t="n">
         <v>38</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4704,6 +6468,21 @@
       <c r="J28" t="n">
         <v>39</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4740,6 +6519,21 @@
       <c r="J29" t="n">
         <v>40</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4776,6 +6570,21 @@
       <c r="J30" t="n">
         <v>41</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4812,6 +6621,21 @@
       <c r="J31" t="n">
         <v>42</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4848,6 +6672,21 @@
       <c r="J32" t="n">
         <v>43</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4884,6 +6723,21 @@
       <c r="J33" t="n">
         <v>44</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4920,6 +6774,21 @@
       <c r="J34" t="n">
         <v>45</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4956,6 +6825,21 @@
       <c r="J35" t="n">
         <v>46</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4992,6 +6876,21 @@
       <c r="J36" t="n">
         <v>47</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5028,6 +6927,21 @@
       <c r="J37" t="n">
         <v>48</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5064,6 +6978,21 @@
       <c r="J38" t="n">
         <v>49</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5100,6 +7029,21 @@
       <c r="J39" t="n">
         <v>50</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5136,6 +7080,21 @@
       <c r="J40" t="n">
         <v>51</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5172,6 +7131,21 @@
       <c r="J41" t="n">
         <v>52</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5208,6 +7182,21 @@
       <c r="J42" t="n">
         <v>53</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5244,6 +7233,21 @@
       <c r="J43" t="n">
         <v>54</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5280,6 +7284,21 @@
       <c r="J44" t="n">
         <v>55</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5315,6 +7334,21 @@
       </c>
       <c r="J45" t="n">
         <v>56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5329,63 +7363,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Emai</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Data22</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Data23</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Data24</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Data25</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Data26</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Data27</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Data28</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Data31</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Data32</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data33</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Data34</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Data35</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Data36</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Data37</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data38</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Data39</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Data40</t>
         </is>
       </c>
     </row>
@@ -5424,6 +7473,21 @@
       <c r="J2" t="n">
         <v>13</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5460,6 +7524,21 @@
       <c r="J3" t="n">
         <v>14</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5496,6 +7575,21 @@
       <c r="J4" t="n">
         <v>15</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5532,6 +7626,21 @@
       <c r="J5" t="n">
         <v>16</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5568,6 +7677,21 @@
       <c r="J6" t="n">
         <v>17</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5604,6 +7728,21 @@
       <c r="J7" t="n">
         <v>18</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5640,6 +7779,21 @@
       <c r="J8" t="n">
         <v>19</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5676,6 +7830,21 @@
       <c r="J9" t="n">
         <v>20</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5712,6 +7881,21 @@
       <c r="J10" t="n">
         <v>21</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5748,6 +7932,21 @@
       <c r="J11" t="n">
         <v>22</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5784,6 +7983,21 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5820,6 +8034,21 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5856,6 +8085,21 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5892,6 +8136,21 @@
       <c r="J15" t="n">
         <v>26</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5928,6 +8187,21 @@
       <c r="J16" t="n">
         <v>27</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5964,6 +8238,21 @@
       <c r="J17" t="n">
         <v>28</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -6000,6 +8289,21 @@
       <c r="J18" t="n">
         <v>29</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -6036,6 +8340,21 @@
       <c r="J19" t="n">
         <v>30</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -6072,6 +8391,21 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -6108,6 +8442,21 @@
       <c r="J21" t="n">
         <v>32</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -6144,6 +8493,21 @@
       <c r="J22" t="n">
         <v>33</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -6180,6 +8544,21 @@
       <c r="J23" t="n">
         <v>34</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -6216,6 +8595,21 @@
       <c r="J24" t="n">
         <v>35</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -6252,6 +8646,21 @@
       <c r="J25" t="n">
         <v>36</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6288,6 +8697,21 @@
       <c r="J26" t="n">
         <v>37</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6324,6 +8748,21 @@
       <c r="J27" t="n">
         <v>38</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6360,6 +8799,21 @@
       <c r="J28" t="n">
         <v>39</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6396,6 +8850,21 @@
       <c r="J29" t="n">
         <v>40</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6432,6 +8901,21 @@
       <c r="J30" t="n">
         <v>41</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -6468,6 +8952,21 @@
       <c r="J31" t="n">
         <v>42</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -6504,6 +9003,21 @@
       <c r="J32" t="n">
         <v>43</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -6540,6 +9054,21 @@
       <c r="J33" t="n">
         <v>44</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -6576,6 +9105,21 @@
       <c r="J34" t="n">
         <v>45</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6612,6 +9156,21 @@
       <c r="J35" t="n">
         <v>46</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6648,6 +9207,21 @@
       <c r="J36" t="n">
         <v>47</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6684,6 +9258,21 @@
       <c r="J37" t="n">
         <v>48</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6720,6 +9309,21 @@
       <c r="J38" t="n">
         <v>49</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6756,6 +9360,21 @@
       <c r="J39" t="n">
         <v>50</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6792,6 +9411,21 @@
       <c r="J40" t="n">
         <v>51</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6828,6 +9462,21 @@
       <c r="J41" t="n">
         <v>52</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6864,6 +9513,21 @@
       <c r="J42" t="n">
         <v>53</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6900,6 +9564,21 @@
       <c r="J43" t="n">
         <v>54</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6936,6 +9615,21 @@
       <c r="J44" t="n">
         <v>55</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6971,6 +9665,21 @@
       </c>
       <c r="J45" t="n">
         <v>56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6984,63 +9693,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Emai</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Data29</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Data30</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Data31</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Data32</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Data33</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Data34</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Data35</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Data41</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Data42</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data43</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Data44</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Data45</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Data46</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Data47</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data48</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Data49</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Data50</t>
         </is>
       </c>
     </row>
@@ -7079,6 +9803,15 @@
       <c r="J2" t="n">
         <v>13</v>
       </c>
+      <c r="K2" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -7115,6 +9848,15 @@
       <c r="J3" t="n">
         <v>14</v>
       </c>
+      <c r="K3" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L3" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7151,6 +9893,15 @@
       <c r="J4" t="n">
         <v>15</v>
       </c>
+      <c r="K4" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L4" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -7187,6 +9938,15 @@
       <c r="J5" t="n">
         <v>16</v>
       </c>
+      <c r="K5" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L5" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -7223,6 +9983,15 @@
       <c r="J6" t="n">
         <v>17</v>
       </c>
+      <c r="K6" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L6" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -7259,6 +10028,15 @@
       <c r="J7" t="n">
         <v>18</v>
       </c>
+      <c r="K7" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L7" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -7295,6 +10073,15 @@
       <c r="J8" t="n">
         <v>19</v>
       </c>
+      <c r="K8" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L8" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -7331,6 +10118,15 @@
       <c r="J9" t="n">
         <v>20</v>
       </c>
+      <c r="K9" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L9" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7367,6 +10163,15 @@
       <c r="J10" t="n">
         <v>21</v>
       </c>
+      <c r="K10" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L10" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -7403,6 +10208,15 @@
       <c r="J11" t="n">
         <v>22</v>
       </c>
+      <c r="K11" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L11" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -7439,6 +10253,15 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
+      <c r="K12" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L12" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -7475,6 +10298,15 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
+      <c r="K13" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L13" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -7511,6 +10343,15 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
+      <c r="K14" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L14" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7547,6 +10388,15 @@
       <c r="J15" t="n">
         <v>26</v>
       </c>
+      <c r="K15" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L15" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7583,6 +10433,15 @@
       <c r="J16" t="n">
         <v>27</v>
       </c>
+      <c r="K16" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L16" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7619,6 +10478,15 @@
       <c r="J17" t="n">
         <v>28</v>
       </c>
+      <c r="K17" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L17" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -7655,6 +10523,15 @@
       <c r="J18" t="n">
         <v>29</v>
       </c>
+      <c r="K18" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L18" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -7691,6 +10568,15 @@
       <c r="J19" t="n">
         <v>30</v>
       </c>
+      <c r="K19" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L19" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -7727,6 +10613,15 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
+      <c r="K20" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L20" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -7763,6 +10658,15 @@
       <c r="J21" t="n">
         <v>32</v>
       </c>
+      <c r="K21" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L21" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -7799,6 +10703,15 @@
       <c r="J22" t="n">
         <v>33</v>
       </c>
+      <c r="K22" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L22" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -7835,6 +10748,15 @@
       <c r="J23" t="n">
         <v>34</v>
       </c>
+      <c r="K23" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L23" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -7871,6 +10793,15 @@
       <c r="J24" t="n">
         <v>35</v>
       </c>
+      <c r="K24" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L24" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -7907,6 +10838,15 @@
       <c r="J25" t="n">
         <v>36</v>
       </c>
+      <c r="K25" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L25" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -7943,6 +10883,15 @@
       <c r="J26" t="n">
         <v>37</v>
       </c>
+      <c r="K26" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L26" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -7979,6 +10928,15 @@
       <c r="J27" t="n">
         <v>38</v>
       </c>
+      <c r="K27" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L27" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8015,6 +10973,15 @@
       <c r="J28" t="n">
         <v>39</v>
       </c>
+      <c r="K28" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L28" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -8051,6 +11018,15 @@
       <c r="J29" t="n">
         <v>40</v>
       </c>
+      <c r="K29" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L29" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -8087,6 +11063,15 @@
       <c r="J30" t="n">
         <v>41</v>
       </c>
+      <c r="K30" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L30" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -8123,6 +11108,15 @@
       <c r="J31" t="n">
         <v>42</v>
       </c>
+      <c r="K31" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L31" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -8159,6 +11153,15 @@
       <c r="J32" t="n">
         <v>43</v>
       </c>
+      <c r="K32" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L32" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -8195,6 +11198,15 @@
       <c r="J33" t="n">
         <v>44</v>
       </c>
+      <c r="K33" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L33" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -8231,6 +11243,15 @@
       <c r="J34" t="n">
         <v>45</v>
       </c>
+      <c r="K34" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L34" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8267,6 +11288,15 @@
       <c r="J35" t="n">
         <v>46</v>
       </c>
+      <c r="K35" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L35" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8303,6 +11333,15 @@
       <c r="J36" t="n">
         <v>47</v>
       </c>
+      <c r="K36" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L36" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8339,6 +11378,15 @@
       <c r="J37" t="n">
         <v>48</v>
       </c>
+      <c r="K37" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L37" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8375,6 +11423,15 @@
       <c r="J38" t="n">
         <v>49</v>
       </c>
+      <c r="K38" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L38" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8411,6 +11468,15 @@
       <c r="J39" t="n">
         <v>50</v>
       </c>
+      <c r="K39" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L39" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -8447,6 +11513,15 @@
       <c r="J40" t="n">
         <v>51</v>
       </c>
+      <c r="K40" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L40" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -8483,6 +11558,15 @@
       <c r="J41" t="n">
         <v>52</v>
       </c>
+      <c r="K41" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L41" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -8519,6 +11603,15 @@
       <c r="J42" t="n">
         <v>53</v>
       </c>
+      <c r="K42" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L42" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -8555,6 +11648,15 @@
       <c r="J43" t="n">
         <v>54</v>
       </c>
+      <c r="K43" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L43" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -8591,6 +11693,15 @@
       <c r="J44" t="n">
         <v>55</v>
       </c>
+      <c r="K44" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L44" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6512516</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -8626,6 +11737,870 @@
       </c>
       <c r="J45" t="n">
         <v>56</v>
+      </c>
+      <c r="K45" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L45" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M45" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>16</v>
+      </c>
+      <c r="E46" t="n">
+        <v>57</v>
+      </c>
+      <c r="F46" t="n">
+        <v>57</v>
+      </c>
+      <c r="G46" t="n">
+        <v>57</v>
+      </c>
+      <c r="H46" t="n">
+        <v>57</v>
+      </c>
+      <c r="I46" t="n">
+        <v>57</v>
+      </c>
+      <c r="J46" t="n">
+        <v>57</v>
+      </c>
+      <c r="K46" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L46" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>17</v>
+      </c>
+      <c r="E47" t="n">
+        <v>58</v>
+      </c>
+      <c r="F47" t="n">
+        <v>58</v>
+      </c>
+      <c r="G47" t="n">
+        <v>58</v>
+      </c>
+      <c r="H47" t="n">
+        <v>58</v>
+      </c>
+      <c r="I47" t="n">
+        <v>58</v>
+      </c>
+      <c r="J47" t="n">
+        <v>58</v>
+      </c>
+      <c r="K47" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L47" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>18</v>
+      </c>
+      <c r="E48" t="n">
+        <v>59</v>
+      </c>
+      <c r="F48" t="n">
+        <v>59</v>
+      </c>
+      <c r="G48" t="n">
+        <v>59</v>
+      </c>
+      <c r="H48" t="n">
+        <v>59</v>
+      </c>
+      <c r="I48" t="n">
+        <v>59</v>
+      </c>
+      <c r="J48" t="n">
+        <v>59</v>
+      </c>
+      <c r="K48" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L48" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>19</v>
+      </c>
+      <c r="E49" t="n">
+        <v>60</v>
+      </c>
+      <c r="F49" t="n">
+        <v>60</v>
+      </c>
+      <c r="G49" t="n">
+        <v>60</v>
+      </c>
+      <c r="H49" t="n">
+        <v>60</v>
+      </c>
+      <c r="I49" t="n">
+        <v>60</v>
+      </c>
+      <c r="J49" t="n">
+        <v>60</v>
+      </c>
+      <c r="K49" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L49" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M49" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" t="n">
+        <v>61</v>
+      </c>
+      <c r="F50" t="n">
+        <v>61</v>
+      </c>
+      <c r="G50" t="n">
+        <v>61</v>
+      </c>
+      <c r="H50" t="n">
+        <v>61</v>
+      </c>
+      <c r="I50" t="n">
+        <v>61</v>
+      </c>
+      <c r="J50" t="n">
+        <v>61</v>
+      </c>
+      <c r="K50" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L50" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>21</v>
+      </c>
+      <c r="E51" t="n">
+        <v>62</v>
+      </c>
+      <c r="F51" t="n">
+        <v>62</v>
+      </c>
+      <c r="G51" t="n">
+        <v>62</v>
+      </c>
+      <c r="H51" t="n">
+        <v>62</v>
+      </c>
+      <c r="I51" t="n">
+        <v>62</v>
+      </c>
+      <c r="J51" t="n">
+        <v>62</v>
+      </c>
+      <c r="K51" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L51" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>22</v>
+      </c>
+      <c r="E52" t="n">
+        <v>63</v>
+      </c>
+      <c r="F52" t="n">
+        <v>63</v>
+      </c>
+      <c r="G52" t="n">
+        <v>63</v>
+      </c>
+      <c r="H52" t="n">
+        <v>63</v>
+      </c>
+      <c r="I52" t="n">
+        <v>63</v>
+      </c>
+      <c r="J52" t="n">
+        <v>63</v>
+      </c>
+      <c r="K52" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L52" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>23</v>
+      </c>
+      <c r="E53" t="n">
+        <v>64</v>
+      </c>
+      <c r="F53" t="n">
+        <v>64</v>
+      </c>
+      <c r="G53" t="n">
+        <v>64</v>
+      </c>
+      <c r="H53" t="n">
+        <v>64</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>64</v>
+      </c>
+      <c r="K53" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L53" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M53" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>24</v>
+      </c>
+      <c r="E54" t="n">
+        <v>65</v>
+      </c>
+      <c r="F54" t="n">
+        <v>65</v>
+      </c>
+      <c r="G54" t="n">
+        <v>65</v>
+      </c>
+      <c r="H54" t="n">
+        <v>65</v>
+      </c>
+      <c r="I54" t="n">
+        <v>65</v>
+      </c>
+      <c r="J54" t="n">
+        <v>65</v>
+      </c>
+      <c r="K54" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L54" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E55" t="n">
+        <v>66</v>
+      </c>
+      <c r="F55" t="n">
+        <v>66</v>
+      </c>
+      <c r="G55" t="n">
+        <v>66</v>
+      </c>
+      <c r="H55" t="n">
+        <v>66</v>
+      </c>
+      <c r="I55" t="n">
+        <v>66</v>
+      </c>
+      <c r="J55" t="n">
+        <v>66</v>
+      </c>
+      <c r="K55" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L55" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" t="n">
+        <v>67</v>
+      </c>
+      <c r="F56" t="n">
+        <v>67</v>
+      </c>
+      <c r="G56" t="n">
+        <v>67</v>
+      </c>
+      <c r="H56" t="n">
+        <v>67</v>
+      </c>
+      <c r="I56" t="n">
+        <v>67</v>
+      </c>
+      <c r="J56" t="n">
+        <v>67</v>
+      </c>
+      <c r="K56" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L56" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>27</v>
+      </c>
+      <c r="E57" t="n">
+        <v>68</v>
+      </c>
+      <c r="F57" t="n">
+        <v>68</v>
+      </c>
+      <c r="G57" t="n">
+        <v>68</v>
+      </c>
+      <c r="H57" t="n">
+        <v>68</v>
+      </c>
+      <c r="I57" t="n">
+        <v>68</v>
+      </c>
+      <c r="J57" t="n">
+        <v>68</v>
+      </c>
+      <c r="K57" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L57" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M57" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>28</v>
+      </c>
+      <c r="E58" t="n">
+        <v>69</v>
+      </c>
+      <c r="F58" t="n">
+        <v>69</v>
+      </c>
+      <c r="G58" t="n">
+        <v>69</v>
+      </c>
+      <c r="H58" t="n">
+        <v>69</v>
+      </c>
+      <c r="I58" t="n">
+        <v>69</v>
+      </c>
+      <c r="J58" t="n">
+        <v>69</v>
+      </c>
+      <c r="K58" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L58" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M58" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>29</v>
+      </c>
+      <c r="E59" t="n">
+        <v>70</v>
+      </c>
+      <c r="F59" t="n">
+        <v>70</v>
+      </c>
+      <c r="G59" t="n">
+        <v>70</v>
+      </c>
+      <c r="H59" t="n">
+        <v>70</v>
+      </c>
+      <c r="I59" t="n">
+        <v>70</v>
+      </c>
+      <c r="J59" t="n">
+        <v>70</v>
+      </c>
+      <c r="K59" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L59" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M59" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>30</v>
+      </c>
+      <c r="E60" t="n">
+        <v>71</v>
+      </c>
+      <c r="F60" t="n">
+        <v>71</v>
+      </c>
+      <c r="G60" t="n">
+        <v>71</v>
+      </c>
+      <c r="H60" t="n">
+        <v>71</v>
+      </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>71</v>
+      </c>
+      <c r="K60" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L60" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M60" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>31</v>
+      </c>
+      <c r="E61" t="n">
+        <v>72</v>
+      </c>
+      <c r="F61" t="n">
+        <v>72</v>
+      </c>
+      <c r="G61" t="n">
+        <v>72</v>
+      </c>
+      <c r="H61" t="n">
+        <v>72</v>
+      </c>
+      <c r="I61" t="n">
+        <v>72</v>
+      </c>
+      <c r="J61" t="n">
+        <v>72</v>
+      </c>
+      <c r="K61" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L61" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M61" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>32</v>
+      </c>
+      <c r="E62" t="n">
+        <v>73</v>
+      </c>
+      <c r="F62" t="n">
+        <v>73</v>
+      </c>
+      <c r="G62" t="n">
+        <v>73</v>
+      </c>
+      <c r="H62" t="n">
+        <v>73</v>
+      </c>
+      <c r="I62" t="n">
+        <v>73</v>
+      </c>
+      <c r="J62" t="n">
+        <v>73</v>
+      </c>
+      <c r="K62" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L62" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M62" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>33</v>
+      </c>
+      <c r="E63" t="n">
+        <v>74</v>
+      </c>
+      <c r="F63" t="n">
+        <v>74</v>
+      </c>
+      <c r="G63" t="n">
+        <v>74</v>
+      </c>
+      <c r="H63" t="n">
+        <v>74</v>
+      </c>
+      <c r="I63" t="n">
+        <v>74</v>
+      </c>
+      <c r="J63" t="n">
+        <v>74</v>
+      </c>
+      <c r="K63" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L63" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M63" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>99003720</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>34</v>
+      </c>
+      <c r="E64" t="n">
+        <v>75</v>
+      </c>
+      <c r="F64" t="n">
+        <v>75</v>
+      </c>
+      <c r="G64" t="n">
+        <v>75</v>
+      </c>
+      <c r="H64" t="n">
+        <v>75</v>
+      </c>
+      <c r="I64" t="n">
+        <v>75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>75</v>
+      </c>
+      <c r="K64" t="n">
+        <v>65554</v>
+      </c>
+      <c r="L64" t="n">
+        <v>622651</v>
+      </c>
+      <c r="M64" t="n">
+        <v>6512516</v>
       </c>
     </row>
   </sheetData>
@@ -8639,10 +12614,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8728,131 +12703,6 @@
           <t>Data10</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Data11</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Data12</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Data13</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Data14</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Data15</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Data16</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Data17</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Data18</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Data19</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Data20</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Data21</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Data22</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Data23</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Data24</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Data25</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Data26</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Data27</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Data28</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Data29</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Data30</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Data31</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>Data32</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Data33</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Data34</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Data35</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -8876,89 +12726,20 @@
       <c r="G3" t="n">
         <v>27</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27</v>
-      </c>
-      <c r="L3" t="n">
-        <v>27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>27</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>27</v>
-      </c>
-      <c r="R3" t="n">
-        <v>27</v>
-      </c>
-      <c r="S3" t="n">
-        <v>27</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27</v>
-      </c>
-      <c r="U3" t="n">
-        <v>27</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>27</v>
-      </c>
-      <c r="X3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>27</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -8983,154 +12764,1876 @@
       <c r="G4" t="n">
         <v>47</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>dfa</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Data11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Data12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Data13</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Data14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Data15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Data16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Data17</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Data18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Data19</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Data20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
-      <c r="I4" t="n">
+      <c r="B8" t="n">
         <v>47</v>
       </c>
-      <c r="J4" t="n">
+      <c r="C8" t="n">
         <v>47</v>
       </c>
-      <c r="K4" t="n">
+      <c r="D8" t="n">
         <v>47</v>
       </c>
-      <c r="L4" t="n">
+      <c r="E8" t="n">
         <v>47</v>
       </c>
-      <c r="M4" t="n">
+      <c r="F8" t="n">
         <v>47</v>
       </c>
-      <c r="N4" t="n">
+      <c r="G8" t="n">
         <v>47</v>
       </c>
-      <c r="O4" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Data21</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Data22</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Data23</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Data24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Data25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Data26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Data27</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Data28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Data29</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Data30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="B11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
         <v>42</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="C12" t="n">
         <v>42</v>
       </c>
-      <c r="R4" t="n">
+      <c r="D12" t="n">
         <v>42</v>
       </c>
-      <c r="S4" t="n">
+      <c r="E12" t="n">
         <v>42</v>
       </c>
-      <c r="T4" t="n">
+      <c r="F12" t="n">
         <v>42</v>
       </c>
-      <c r="U4" t="n">
+      <c r="G12" t="n">
         <v>42</v>
       </c>
-      <c r="V4" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Data31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Data32</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Data33</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Data34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Data35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Data36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Data37</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Data38</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Data39</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Data40</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="n">
+      <c r="B16" t="n">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
         <v>42</v>
       </c>
-      <c r="X4" t="n">
+      <c r="C17" t="n">
         <v>42</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="D17" t="n">
         <v>42</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="E17" t="n">
         <v>42</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="F17" t="n">
         <v>42</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="G17" t="n">
         <v>42</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Data41</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Data42</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Data43</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Data44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Data45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Data46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Data47</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Data48</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Data49</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Data50</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>1</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="B21" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" t="n">
+        <v>27</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27</v>
+      </c>
+      <c r="H21" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I21" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
         <v>42</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="C22" t="n">
         <v>42</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="D22" t="n">
         <v>42</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="E22" t="n">
         <v>42</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="F22" t="n">
         <v>42</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="G22" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="O5" t="n">
+      <c r="H22" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I22" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>9</v>
       </c>
-      <c r="P5" t="n">
+      <c r="B23" t="n">
         <v>50</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="C23" t="n">
         <v>50</v>
       </c>
-      <c r="R5" t="n">
+      <c r="D23" t="n">
         <v>50</v>
       </c>
-      <c r="S5" t="n">
+      <c r="E23" t="n">
         <v>50</v>
       </c>
-      <c r="T5" t="n">
+      <c r="F23" t="n">
         <v>50</v>
       </c>
-      <c r="U5" t="n">
+      <c r="G23" t="n">
         <v>50</v>
       </c>
-      <c r="V5" t="n">
+      <c r="H23" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I23" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57</v>
+      </c>
+      <c r="D24" t="n">
+        <v>57</v>
+      </c>
+      <c r="E24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F24" t="n">
+        <v>57</v>
+      </c>
+      <c r="G24" t="n">
+        <v>57</v>
+      </c>
+      <c r="H24" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I24" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Data11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Data12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Data13</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Data14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Data15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Data16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Data17</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Data18</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Data19</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Data20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27</v>
+      </c>
+      <c r="D27" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" t="n">
+        <v>27</v>
+      </c>
+      <c r="F27" t="n">
+        <v>27</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" t="n">
+        <v>47</v>
+      </c>
+      <c r="C28" t="n">
+        <v>47</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47</v>
+      </c>
+      <c r="E28" t="n">
+        <v>47</v>
+      </c>
+      <c r="F28" t="n">
+        <v>47</v>
+      </c>
+      <c r="G28" t="n">
+        <v>47</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Data21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Data22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Data23</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Data24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Data25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Data26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Data27</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Data28</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Data29</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Data30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>27</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27</v>
+      </c>
+      <c r="F31" t="n">
+        <v>27</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>42</v>
+      </c>
+      <c r="C32" t="n">
+        <v>42</v>
+      </c>
+      <c r="D32" t="n">
+        <v>42</v>
+      </c>
+      <c r="E32" t="n">
+        <v>42</v>
+      </c>
+      <c r="F32" t="n">
+        <v>42</v>
+      </c>
+      <c r="G32" t="n">
+        <v>42</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>9</v>
       </c>
-      <c r="W5" t="n">
+      <c r="B33" t="n">
         <v>50</v>
       </c>
-      <c r="X5" t="n">
+      <c r="C33" t="n">
         <v>50</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="D33" t="n">
         <v>50</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="E33" t="n">
         <v>50</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="F33" t="n">
         <v>50</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="G33" t="n">
         <v>50</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>dassd</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>dsdsd</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Data31</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Data32</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Data33</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Data34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Data35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Data36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Data37</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Data38</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Data39</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Data40</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27</v>
+      </c>
+      <c r="D36" t="n">
+        <v>27</v>
+      </c>
+      <c r="E36" t="n">
+        <v>27</v>
+      </c>
+      <c r="F36" t="n">
+        <v>27</v>
+      </c>
+      <c r="G36" t="n">
+        <v>27</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>42</v>
+      </c>
+      <c r="E37" t="n">
+        <v>42</v>
+      </c>
+      <c r="F37" t="n">
+        <v>42</v>
+      </c>
+      <c r="G37" t="n">
+        <v>42</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>9</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="B38" t="n">
         <v>50</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="C38" t="n">
         <v>50</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="D38" t="n">
         <v>50</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="E38" t="n">
         <v>50</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="F38" t="n">
         <v>50</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="G38" t="n">
         <v>50</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Data41</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Data42</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Data43</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Data44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Data45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Data46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Data47</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Data48</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Data49</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Data50</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>27</v>
+      </c>
+      <c r="C41" t="n">
+        <v>27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>27</v>
+      </c>
+      <c r="E41" t="n">
+        <v>27</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27</v>
+      </c>
+      <c r="G41" t="n">
+        <v>27</v>
+      </c>
+      <c r="H41" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I41" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42</v>
+      </c>
+      <c r="D42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" t="n">
+        <v>42</v>
+      </c>
+      <c r="F42" t="n">
+        <v>42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>42</v>
+      </c>
+      <c r="H42" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I42" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="n">
+        <v>50</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>50</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I43" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>16</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>57</v>
+      </c>
+      <c r="D44" t="n">
+        <v>57</v>
+      </c>
+      <c r="E44" t="n">
+        <v>57</v>
+      </c>
+      <c r="F44" t="n">
+        <v>57</v>
+      </c>
+      <c r="G44" t="n">
+        <v>57</v>
+      </c>
+      <c r="H44" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I44" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17</v>
+      </c>
+      <c r="B45" t="n">
+        <v>58</v>
+      </c>
+      <c r="C45" t="n">
+        <v>58</v>
+      </c>
+      <c r="D45" t="n">
+        <v>58</v>
+      </c>
+      <c r="E45" t="n">
+        <v>58</v>
+      </c>
+      <c r="F45" t="n">
+        <v>58</v>
+      </c>
+      <c r="G45" t="n">
+        <v>58</v>
+      </c>
+      <c r="H45" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I45" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>18</v>
+      </c>
+      <c r="B46" t="n">
+        <v>59</v>
+      </c>
+      <c r="C46" t="n">
+        <v>59</v>
+      </c>
+      <c r="D46" t="n">
+        <v>59</v>
+      </c>
+      <c r="E46" t="n">
+        <v>59</v>
+      </c>
+      <c r="F46" t="n">
+        <v>59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>59</v>
+      </c>
+      <c r="H46" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I46" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>19</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+      <c r="C47" t="n">
+        <v>60</v>
+      </c>
+      <c r="D47" t="n">
+        <v>60</v>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+      <c r="F47" t="n">
+        <v>60</v>
+      </c>
+      <c r="G47" t="n">
+        <v>60</v>
+      </c>
+      <c r="H47" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I47" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20</v>
+      </c>
+      <c r="B48" t="n">
+        <v>61</v>
+      </c>
+      <c r="C48" t="n">
+        <v>61</v>
+      </c>
+      <c r="D48" t="n">
+        <v>61</v>
+      </c>
+      <c r="E48" t="n">
+        <v>61</v>
+      </c>
+      <c r="F48" t="n">
+        <v>61</v>
+      </c>
+      <c r="G48" t="n">
+        <v>61</v>
+      </c>
+      <c r="H48" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I48" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21</v>
+      </c>
+      <c r="B49" t="n">
+        <v>62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>62</v>
+      </c>
+      <c r="D49" t="n">
+        <v>62</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>62</v>
+      </c>
+      <c r="G49" t="n">
+        <v>62</v>
+      </c>
+      <c r="H49" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I49" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>22</v>
+      </c>
+      <c r="B50" t="n">
+        <v>63</v>
+      </c>
+      <c r="C50" t="n">
+        <v>63</v>
+      </c>
+      <c r="D50" t="n">
+        <v>63</v>
+      </c>
+      <c r="E50" t="n">
+        <v>63</v>
+      </c>
+      <c r="F50" t="n">
+        <v>63</v>
+      </c>
+      <c r="G50" t="n">
+        <v>63</v>
+      </c>
+      <c r="H50" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I50" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>23</v>
+      </c>
+      <c r="B51" t="n">
+        <v>64</v>
+      </c>
+      <c r="C51" t="n">
+        <v>64</v>
+      </c>
+      <c r="D51" t="n">
+        <v>64</v>
+      </c>
+      <c r="E51" t="n">
+        <v>64</v>
+      </c>
+      <c r="F51" t="n">
+        <v>64</v>
+      </c>
+      <c r="G51" t="n">
+        <v>64</v>
+      </c>
+      <c r="H51" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I51" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>24</v>
+      </c>
+      <c r="B52" t="n">
+        <v>65</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65</v>
+      </c>
+      <c r="D52" t="n">
+        <v>65</v>
+      </c>
+      <c r="E52" t="n">
+        <v>65</v>
+      </c>
+      <c r="F52" t="n">
+        <v>65</v>
+      </c>
+      <c r="G52" t="n">
+        <v>65</v>
+      </c>
+      <c r="H52" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I52" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25</v>
+      </c>
+      <c r="B53" t="n">
+        <v>66</v>
+      </c>
+      <c r="C53" t="n">
+        <v>66</v>
+      </c>
+      <c r="D53" t="n">
+        <v>66</v>
+      </c>
+      <c r="E53" t="n">
+        <v>66</v>
+      </c>
+      <c r="F53" t="n">
+        <v>66</v>
+      </c>
+      <c r="G53" t="n">
+        <v>66</v>
+      </c>
+      <c r="H53" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I53" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26</v>
+      </c>
+      <c r="B54" t="n">
+        <v>67</v>
+      </c>
+      <c r="C54" t="n">
+        <v>67</v>
+      </c>
+      <c r="D54" t="n">
+        <v>67</v>
+      </c>
+      <c r="E54" t="n">
+        <v>67</v>
+      </c>
+      <c r="F54" t="n">
+        <v>67</v>
+      </c>
+      <c r="G54" t="n">
+        <v>67</v>
+      </c>
+      <c r="H54" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I54" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27</v>
+      </c>
+      <c r="B55" t="n">
+        <v>68</v>
+      </c>
+      <c r="C55" t="n">
+        <v>68</v>
+      </c>
+      <c r="D55" t="n">
+        <v>68</v>
+      </c>
+      <c r="E55" t="n">
+        <v>68</v>
+      </c>
+      <c r="F55" t="n">
+        <v>68</v>
+      </c>
+      <c r="G55" t="n">
+        <v>68</v>
+      </c>
+      <c r="H55" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I55" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28</v>
+      </c>
+      <c r="B56" t="n">
+        <v>69</v>
+      </c>
+      <c r="C56" t="n">
+        <v>69</v>
+      </c>
+      <c r="D56" t="n">
+        <v>69</v>
+      </c>
+      <c r="E56" t="n">
+        <v>69</v>
+      </c>
+      <c r="F56" t="n">
+        <v>69</v>
+      </c>
+      <c r="G56" t="n">
+        <v>69</v>
+      </c>
+      <c r="H56" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I56" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>29</v>
+      </c>
+      <c r="B57" t="n">
+        <v>70</v>
+      </c>
+      <c r="C57" t="n">
+        <v>70</v>
+      </c>
+      <c r="D57" t="n">
+        <v>70</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70</v>
+      </c>
+      <c r="F57" t="n">
+        <v>70</v>
+      </c>
+      <c r="G57" t="n">
+        <v>70</v>
+      </c>
+      <c r="H57" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I57" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J57" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>30</v>
+      </c>
+      <c r="B58" t="n">
+        <v>71</v>
+      </c>
+      <c r="C58" t="n">
+        <v>71</v>
+      </c>
+      <c r="D58" t="n">
+        <v>71</v>
+      </c>
+      <c r="E58" t="n">
+        <v>71</v>
+      </c>
+      <c r="F58" t="n">
+        <v>71</v>
+      </c>
+      <c r="G58" t="n">
+        <v>71</v>
+      </c>
+      <c r="H58" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I58" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31</v>
+      </c>
+      <c r="B59" t="n">
+        <v>72</v>
+      </c>
+      <c r="C59" t="n">
+        <v>72</v>
+      </c>
+      <c r="D59" t="n">
+        <v>72</v>
+      </c>
+      <c r="E59" t="n">
+        <v>72</v>
+      </c>
+      <c r="F59" t="n">
+        <v>72</v>
+      </c>
+      <c r="G59" t="n">
+        <v>72</v>
+      </c>
+      <c r="H59" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I59" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32</v>
+      </c>
+      <c r="B60" t="n">
+        <v>73</v>
+      </c>
+      <c r="C60" t="n">
+        <v>73</v>
+      </c>
+      <c r="D60" t="n">
+        <v>73</v>
+      </c>
+      <c r="E60" t="n">
+        <v>73</v>
+      </c>
+      <c r="F60" t="n">
+        <v>73</v>
+      </c>
+      <c r="G60" t="n">
+        <v>73</v>
+      </c>
+      <c r="H60" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I60" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33</v>
+      </c>
+      <c r="B61" t="n">
+        <v>74</v>
+      </c>
+      <c r="C61" t="n">
+        <v>74</v>
+      </c>
+      <c r="D61" t="n">
+        <v>74</v>
+      </c>
+      <c r="E61" t="n">
+        <v>74</v>
+      </c>
+      <c r="F61" t="n">
+        <v>74</v>
+      </c>
+      <c r="G61" t="n">
+        <v>74</v>
+      </c>
+      <c r="H61" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I61" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6512516</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34</v>
+      </c>
+      <c r="B62" t="n">
+        <v>75</v>
+      </c>
+      <c r="C62" t="n">
+        <v>75</v>
+      </c>
+      <c r="D62" t="n">
+        <v>75</v>
+      </c>
+      <c r="E62" t="n">
+        <v>75</v>
+      </c>
+      <c r="F62" t="n">
+        <v>75</v>
+      </c>
+      <c r="G62" t="n">
+        <v>75</v>
+      </c>
+      <c r="H62" t="n">
+        <v>65554</v>
+      </c>
+      <c r="I62" t="n">
+        <v>622651</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6512516</v>
       </c>
     </row>
   </sheetData>

--- a/Practice_problem/sheets.xlsx
+++ b/Practice_problem/sheets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="93">
   <si>
-    <t>PS_Number</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>abhi</t>
+    <t>Emai</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>Data01</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Data02</t>
+  </si>
+  <si>
+    <t>Data03</t>
   </si>
   <si>
     <t>Data04</t>
@@ -62,10 +65,10 @@
     <t>Data10</t>
   </si>
   <si>
-    <t>utsav</t>
+    <t>rshma</t>
   </si>
   <si>
-    <t>e</t>
+    <t>b</t>
   </si>
   <si>
     <t>asd</t>
@@ -75,6 +78,24 @@
   </si>
   <si>
     <t>asdf</t>
+  </si>
+  <si>
+    <t>moni</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>pankaj</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>utsav</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>nandi</t>
@@ -137,31 +158,13 @@
     <t>o</t>
   </si>
   <si>
-    <t>rshma</t>
+    <t>abhi</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>moni</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>pankaj</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>a</t>
   </si>
   <si>
     <t>sravan</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Emai</t>
   </si>
   <si>
     <t>Data11</t>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,1722 +675,1845 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>99003720</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>99003724</v>
+        <v>99003721</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>99003725</v>
+        <v>99003722</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>99003726</v>
+        <v>99003723</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>99003727</v>
+        <v>99003724</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>99003728</v>
+        <v>99003725</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>99003729</v>
+        <v>99003726</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>99003730</v>
+        <v>99003727</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>99003731</v>
+        <v>99003728</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>99003732</v>
+        <v>99003729</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>99003733</v>
+        <v>99003730</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>99003734</v>
+        <v>99003731</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>26</v>
-      </c>
-      <c r="G12">
-        <v>26</v>
-      </c>
-      <c r="H12">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>26</v>
-      </c>
-      <c r="J12">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>99003720</v>
+        <v>99003732</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>99003721</v>
+        <v>99003733</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>99003722</v>
+        <v>99003734</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>99003723</v>
+        <v>99003720</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>99003724</v>
+        <v>99003721</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>99003725</v>
+        <v>99003722</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>32</v>
-      </c>
-      <c r="G18">
-        <v>32</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
-      </c>
-      <c r="I18">
-        <v>32</v>
-      </c>
-      <c r="J18">
-        <v>32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>99003726</v>
+        <v>99003723</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>99003727</v>
+        <v>99003724</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>99003728</v>
+        <v>99003725</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>99003729</v>
+        <v>99003726</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>99003730</v>
+        <v>99003727</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>99003731</v>
+        <v>99003728</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>99003732</v>
+        <v>99003729</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J25">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>99003733</v>
+        <v>99003730</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J26">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>99003734</v>
+        <v>99003731</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>38</v>
+      </c>
+      <c r="I27">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
-        <v>41</v>
-      </c>
-      <c r="F27">
-        <v>41</v>
-      </c>
-      <c r="G27">
-        <v>41</v>
-      </c>
-      <c r="H27">
-        <v>41</v>
-      </c>
-      <c r="I27">
-        <v>41</v>
-      </c>
-      <c r="J27">
-        <v>41</v>
-      </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
       <c r="L27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>99003720</v>
+        <v>99003732</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>99003721</v>
+        <v>99003733</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>99003722</v>
+        <v>99003734</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J30">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>99003723</v>
+        <v>99003720</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>42</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>45</v>
-      </c>
       <c r="F31">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I31">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J31">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99003724</v>
+        <v>99003721</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>99003720</v>
+        <v>99003722</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J33">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>99003726</v>
+        <v>99003723</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F34">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G34">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I34">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J34">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>99003727</v>
+        <v>99003724</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F35">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G35">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I35">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J35">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>99003728</v>
+        <v>99003720</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J36">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>99003729</v>
+        <v>99003726</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J37">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>99003730</v>
+        <v>99003727</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F38">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G38">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I38">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J38">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>99003731</v>
+        <v>99003728</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I39">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J39">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>99003732</v>
+        <v>99003729</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F40">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G40">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H40">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I40">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J40">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>99003733</v>
+        <v>99003730</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J41">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>99003731</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>53</v>
+      </c>
+      <c r="G42">
+        <v>53</v>
+      </c>
+      <c r="H42">
+        <v>53</v>
+      </c>
+      <c r="I42">
+        <v>53</v>
+      </c>
+      <c r="J42">
+        <v>53</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>99003732</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>54</v>
+      </c>
+      <c r="F43">
+        <v>54</v>
+      </c>
+      <c r="G43">
+        <v>54</v>
+      </c>
+      <c r="H43">
+        <v>54</v>
+      </c>
+      <c r="I43">
+        <v>54</v>
+      </c>
+      <c r="J43">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>99003733</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <v>55</v>
+      </c>
+      <c r="G44">
+        <v>55</v>
+      </c>
+      <c r="H44">
+        <v>55</v>
+      </c>
+      <c r="I44">
+        <v>55</v>
+      </c>
+      <c r="J44">
+        <v>55</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>99003734</v>
       </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42">
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>56</v>
       </c>
-      <c r="F42">
+      <c r="F45">
         <v>56</v>
       </c>
-      <c r="G42">
+      <c r="G45">
         <v>56</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>56</v>
       </c>
-      <c r="I42">
+      <c r="I45">
         <v>56</v>
       </c>
-      <c r="J42">
+      <c r="J45">
         <v>56</v>
       </c>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="K45" t="s">
         <v>15</v>
       </c>
-      <c r="M42" t="s">
+      <c r="L45" t="s">
         <v>16</v>
+      </c>
+      <c r="M45" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2408,43 +2534,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2452,10 +2578,10 @@
         <v>99003721</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2479,13 +2605,13 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2493,10 +2619,10 @@
         <v>99003722</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2520,13 +2646,13 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2534,10 +2660,10 @@
         <v>99003723</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2561,13 +2687,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2575,10 +2701,10 @@
         <v>99003724</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2602,13 +2728,13 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,10 +2742,10 @@
         <v>99003725</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2643,13 +2769,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2657,10 +2783,10 @@
         <v>99003726</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -2684,13 +2810,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2698,10 +2824,10 @@
         <v>99003727</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -2725,13 +2851,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2739,10 +2865,10 @@
         <v>99003728</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -2766,13 +2892,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2780,10 +2906,10 @@
         <v>99003729</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2807,13 +2933,13 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2821,10 +2947,10 @@
         <v>99003730</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -2848,13 +2974,13 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2862,10 +2988,10 @@
         <v>99003731</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -2889,13 +3015,13 @@
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,10 +3029,10 @@
         <v>99003732</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -2930,13 +3056,13 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2944,10 +3070,10 @@
         <v>99003733</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -2971,13 +3097,13 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2985,10 +3111,10 @@
         <v>99003734</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -3012,13 +3138,13 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3026,10 +3152,10 @@
         <v>99003720</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3053,13 +3179,13 @@
         <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3067,10 +3193,10 @@
         <v>99003721</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3094,13 +3220,13 @@
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3108,10 +3234,10 @@
         <v>99003722</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -3135,13 +3261,13 @@
         <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3149,10 +3275,10 @@
         <v>99003723</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3176,13 +3302,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3190,10 +3316,10 @@
         <v>99003724</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3217,13 +3343,13 @@
         <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3231,10 +3357,10 @@
         <v>99003725</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -3258,13 +3384,13 @@
         <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3272,10 +3398,10 @@
         <v>99003726</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -3299,13 +3425,13 @@
         <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3313,10 +3439,10 @@
         <v>99003727</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -3340,13 +3466,13 @@
         <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3354,10 +3480,10 @@
         <v>99003728</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -3381,13 +3507,13 @@
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3395,10 +3521,10 @@
         <v>99003729</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -3422,13 +3548,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3436,10 +3562,10 @@
         <v>99003730</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -3463,13 +3589,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3477,10 +3603,10 @@
         <v>99003731</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -3504,13 +3630,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3518,10 +3644,10 @@
         <v>99003732</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -3545,13 +3671,13 @@
         <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3559,10 +3685,10 @@
         <v>99003733</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -3586,13 +3712,13 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3600,10 +3726,10 @@
         <v>99003734</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -3627,13 +3753,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3641,10 +3767,10 @@
         <v>99003720</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3668,13 +3794,13 @@
         <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,10 +3808,10 @@
         <v>99003721</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3709,13 +3835,13 @@
         <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3723,10 +3849,10 @@
         <v>99003722</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -3750,13 +3876,13 @@
         <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3764,10 +3890,10 @@
         <v>99003723</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3791,13 +3917,13 @@
         <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,10 +3931,10 @@
         <v>99003724</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3832,13 +3958,13 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,10 +3972,10 @@
         <v>99003720</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -3873,13 +3999,13 @@
         <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3887,10 +4013,10 @@
         <v>99003726</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -3914,13 +4040,13 @@
         <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3928,10 +4054,10 @@
         <v>99003727</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -3955,13 +4081,13 @@
         <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3969,10 +4095,10 @@
         <v>99003728</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -3996,13 +4122,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4010,10 +4136,10 @@
         <v>99003729</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -4037,13 +4163,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4051,10 +4177,10 @@
         <v>99003730</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -4078,13 +4204,13 @@
         <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4092,10 +4218,10 @@
         <v>99003731</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -4119,13 +4245,13 @@
         <v>53</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4133,10 +4259,10 @@
         <v>99003732</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -4160,13 +4286,13 @@
         <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,10 +4300,10 @@
         <v>99003733</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -4201,13 +4327,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4215,10 +4341,10 @@
         <v>99003734</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -4242,13 +4368,13 @@
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4269,43 +4395,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4313,10 +4439,10 @@
         <v>99003721</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -4340,13 +4466,13 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4354,10 +4480,10 @@
         <v>99003722</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4381,13 +4507,13 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4395,10 +4521,10 @@
         <v>99003723</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -4422,13 +4548,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4436,10 +4562,10 @@
         <v>99003724</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -4463,13 +4589,13 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4477,10 +4603,10 @@
         <v>99003725</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -4504,13 +4630,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4518,10 +4644,10 @@
         <v>99003726</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -4545,13 +4671,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4559,10 +4685,10 @@
         <v>99003727</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -4586,13 +4712,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4600,10 +4726,10 @@
         <v>99003728</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -4627,13 +4753,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4641,10 +4767,10 @@
         <v>99003729</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -4668,13 +4794,13 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4682,10 +4808,10 @@
         <v>99003730</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -4709,13 +4835,13 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4723,10 +4849,10 @@
         <v>99003731</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -4750,13 +4876,13 @@
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4764,10 +4890,10 @@
         <v>99003732</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -4791,13 +4917,13 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4805,10 +4931,10 @@
         <v>99003733</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -4832,13 +4958,13 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4846,10 +4972,10 @@
         <v>99003734</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -4873,13 +4999,13 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4887,10 +5013,10 @@
         <v>99003720</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4914,13 +5040,13 @@
         <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4928,10 +5054,10 @@
         <v>99003721</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4955,13 +5081,13 @@
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4969,10 +5095,10 @@
         <v>99003722</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -4996,13 +5122,13 @@
         <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5010,10 +5136,10 @@
         <v>99003723</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -5037,13 +5163,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5051,10 +5177,10 @@
         <v>99003724</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -5078,13 +5204,13 @@
         <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5092,10 +5218,10 @@
         <v>99003725</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -5119,13 +5245,13 @@
         <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5133,10 +5259,10 @@
         <v>99003726</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -5160,13 +5286,13 @@
         <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5174,10 +5300,10 @@
         <v>99003727</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -5201,13 +5327,13 @@
         <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5215,10 +5341,10 @@
         <v>99003728</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -5242,13 +5368,13 @@
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5256,10 +5382,10 @@
         <v>99003729</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -5283,13 +5409,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5297,10 +5423,10 @@
         <v>99003730</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -5324,13 +5450,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5338,10 +5464,10 @@
         <v>99003731</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -5365,13 +5491,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5379,10 +5505,10 @@
         <v>99003732</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -5406,13 +5532,13 @@
         <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5420,10 +5546,10 @@
         <v>99003733</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -5447,13 +5573,13 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5461,10 +5587,10 @@
         <v>99003734</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -5488,13 +5614,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -5502,10 +5628,10 @@
         <v>99003720</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -5529,13 +5655,13 @@
         <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -5543,10 +5669,10 @@
         <v>99003721</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5570,13 +5696,13 @@
         <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5584,10 +5710,10 @@
         <v>99003722</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -5611,13 +5737,13 @@
         <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -5625,10 +5751,10 @@
         <v>99003723</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -5652,13 +5778,13 @@
         <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -5666,10 +5792,10 @@
         <v>99003724</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -5693,13 +5819,13 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -5707,10 +5833,10 @@
         <v>99003725</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -5734,13 +5860,13 @@
         <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5748,10 +5874,10 @@
         <v>99003726</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -5775,13 +5901,13 @@
         <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5789,10 +5915,10 @@
         <v>99003727</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -5816,13 +5942,13 @@
         <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5830,10 +5956,10 @@
         <v>99003720</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -5857,13 +5983,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5871,10 +5997,10 @@
         <v>99003729</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -5898,13 +6024,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5912,10 +6038,10 @@
         <v>99003730</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -5939,13 +6065,13 @@
         <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5953,10 +6079,10 @@
         <v>99003731</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -5980,13 +6106,13 @@
         <v>53</v>
       </c>
       <c r="K42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5994,10 +6120,10 @@
         <v>99003732</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -6021,13 +6147,13 @@
         <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -6035,10 +6161,10 @@
         <v>99003733</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -6062,13 +6188,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -6076,10 +6202,10 @@
         <v>99003734</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -6103,13 +6229,13 @@
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6130,43 +6256,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6174,10 +6300,10 @@
         <v>99003721</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -6201,13 +6327,13 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6215,10 +6341,10 @@
         <v>99003722</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -6242,13 +6368,13 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6256,10 +6382,10 @@
         <v>99003723</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -6283,13 +6409,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6297,10 +6423,10 @@
         <v>99003724</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -6324,13 +6450,13 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6338,10 +6464,10 @@
         <v>99003725</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -6365,13 +6491,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6379,10 +6505,10 @@
         <v>99003726</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -6406,13 +6532,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6420,10 +6546,10 @@
         <v>99003727</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -6447,13 +6573,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6461,10 +6587,10 @@
         <v>99003728</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -6488,13 +6614,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6502,10 +6628,10 @@
         <v>99003729</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -6529,13 +6655,13 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -6543,10 +6669,10 @@
         <v>99003730</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -6570,13 +6696,13 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -6584,10 +6710,10 @@
         <v>99003731</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -6611,13 +6737,13 @@
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6625,10 +6751,10 @@
         <v>99003732</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -6652,13 +6778,13 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6666,10 +6792,10 @@
         <v>99003733</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -6693,13 +6819,13 @@
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6707,10 +6833,10 @@
         <v>99003734</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -6734,13 +6860,13 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6748,10 +6874,10 @@
         <v>99003720</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6775,13 +6901,13 @@
         <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6789,10 +6915,10 @@
         <v>99003721</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -6816,13 +6942,13 @@
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -6830,10 +6956,10 @@
         <v>99003722</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -6857,13 +6983,13 @@
         <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -6871,10 +6997,10 @@
         <v>99003723</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -6898,13 +7024,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -6912,10 +7038,10 @@
         <v>99003724</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -6939,13 +7065,13 @@
         <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6953,10 +7079,10 @@
         <v>99003725</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -6980,13 +7106,13 @@
         <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -6994,10 +7120,10 @@
         <v>99003726</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -7021,13 +7147,13 @@
         <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -7035,10 +7161,10 @@
         <v>99003727</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -7062,13 +7188,13 @@
         <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -7076,10 +7202,10 @@
         <v>99003728</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -7103,13 +7229,13 @@
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -7117,10 +7243,10 @@
         <v>99003729</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -7144,13 +7270,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -7158,10 +7284,10 @@
         <v>99003730</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -7185,13 +7311,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -7199,10 +7325,10 @@
         <v>99003731</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -7226,13 +7352,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -7240,10 +7366,10 @@
         <v>99003732</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -7267,13 +7393,13 @@
         <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -7281,10 +7407,10 @@
         <v>99003733</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -7308,13 +7434,13 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7322,10 +7448,10 @@
         <v>99003734</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -7349,13 +7475,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -7363,10 +7489,10 @@
         <v>99003720</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -7390,13 +7516,13 @@
         <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7404,10 +7530,10 @@
         <v>99003721</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -7431,13 +7557,13 @@
         <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -7445,10 +7571,10 @@
         <v>99003722</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -7472,13 +7598,13 @@
         <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -7486,10 +7612,10 @@
         <v>99003723</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -7513,13 +7639,13 @@
         <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -7527,10 +7653,10 @@
         <v>99003724</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -7554,13 +7680,13 @@
         <v>46</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -7568,10 +7694,10 @@
         <v>99003725</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -7595,13 +7721,13 @@
         <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -7609,10 +7735,10 @@
         <v>99003726</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -7636,13 +7762,13 @@
         <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -7650,10 +7776,10 @@
         <v>99003727</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -7677,13 +7803,13 @@
         <v>49</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -7691,10 +7817,10 @@
         <v>99003720</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -7718,13 +7844,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -7732,10 +7858,10 @@
         <v>99003729</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -7759,13 +7885,13 @@
         <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -7773,10 +7899,10 @@
         <v>99003730</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -7800,13 +7926,13 @@
         <v>52</v>
       </c>
       <c r="K41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -7814,10 +7940,10 @@
         <v>99003731</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -7841,13 +7967,13 @@
         <v>53</v>
       </c>
       <c r="K42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -7855,10 +7981,10 @@
         <v>99003732</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -7882,13 +8008,13 @@
         <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -7896,10 +8022,10 @@
         <v>99003733</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -7923,13 +8049,13 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -7937,10 +8063,10 @@
         <v>99003734</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -7964,13 +8090,13 @@
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7981,53 +8107,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8035,10 +8161,10 @@
         <v>99003721</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -8076,10 +8202,10 @@
         <v>99003722</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -8117,10 +8243,10 @@
         <v>99003723</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -8158,10 +8284,10 @@
         <v>99003724</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -8199,10 +8325,10 @@
         <v>99003725</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -8240,10 +8366,10 @@
         <v>99003726</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -8281,10 +8407,10 @@
         <v>99003727</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -8322,10 +8448,10 @@
         <v>99003728</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -8363,10 +8489,10 @@
         <v>99003729</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -8404,10 +8530,10 @@
         <v>99003730</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -8445,10 +8571,10 @@
         <v>99003731</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -8486,10 +8612,10 @@
         <v>99003732</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -8527,10 +8653,10 @@
         <v>99003733</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -8568,10 +8694,10 @@
         <v>99003734</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -8609,10 +8735,10 @@
         <v>99003720</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -8650,10 +8776,10 @@
         <v>99003721</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -8691,10 +8817,10 @@
         <v>99003722</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -8732,10 +8858,10 @@
         <v>99003723</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -8773,10 +8899,10 @@
         <v>99003724</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -8814,10 +8940,10 @@
         <v>99003725</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -8855,10 +8981,10 @@
         <v>99003726</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -8896,10 +9022,10 @@
         <v>99003727</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -8937,10 +9063,10 @@
         <v>99003728</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -8978,10 +9104,10 @@
         <v>99003729</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -9019,10 +9145,10 @@
         <v>99003730</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -9060,10 +9186,10 @@
         <v>99003731</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -9101,10 +9227,10 @@
         <v>99003732</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -9142,10 +9268,10 @@
         <v>99003733</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -9183,10 +9309,10 @@
         <v>99003734</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -9224,10 +9350,10 @@
         <v>99003720</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -9265,10 +9391,10 @@
         <v>99003721</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -9306,10 +9432,10 @@
         <v>99003722</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -9347,10 +9473,10 @@
         <v>99003723</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -9388,10 +9514,10 @@
         <v>99003724</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -9429,10 +9555,10 @@
         <v>99003725</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -9470,10 +9596,10 @@
         <v>99003726</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -9511,10 +9637,10 @@
         <v>99003727</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -9552,10 +9678,10 @@
         <v>99003720</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -9593,10 +9719,10 @@
         <v>99003729</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -9634,10 +9760,10 @@
         <v>99003730</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -9675,10 +9801,10 @@
         <v>99003731</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -9716,10 +9842,10 @@
         <v>99003732</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -9757,10 +9883,10 @@
         <v>99003733</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -9798,10 +9924,10 @@
         <v>99003734</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -9839,10 +9965,10 @@
         <v>99003720</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D46">
         <v>16</v>
@@ -9880,10 +10006,10 @@
         <v>99003720</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>17</v>
@@ -9921,10 +10047,10 @@
         <v>99003720</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>18</v>
@@ -9962,10 +10088,10 @@
         <v>99003720</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>19</v>
@@ -10003,10 +10129,10 @@
         <v>99003720</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D50">
         <v>20</v>
@@ -10044,10 +10170,10 @@
         <v>99003720</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D51">
         <v>21</v>
@@ -10085,10 +10211,10 @@
         <v>99003720</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D52">
         <v>22</v>
@@ -10126,10 +10252,10 @@
         <v>99003720</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>23</v>
@@ -10167,10 +10293,10 @@
         <v>99003720</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -10208,10 +10334,10 @@
         <v>99003720</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D55">
         <v>25</v>
@@ -10249,10 +10375,10 @@
         <v>99003720</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>26</v>
@@ -10290,10 +10416,10 @@
         <v>99003720</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D57">
         <v>27</v>
@@ -10331,10 +10457,10 @@
         <v>99003720</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>28</v>
@@ -10372,10 +10498,10 @@
         <v>99003720</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D59">
         <v>29</v>
@@ -10413,10 +10539,10 @@
         <v>99003720</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D60">
         <v>30</v>
@@ -10454,10 +10580,10 @@
         <v>99003720</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D61">
         <v>31</v>
@@ -10495,10 +10621,10 @@
         <v>99003720</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D62">
         <v>32</v>
@@ -10536,10 +10662,10 @@
         <v>99003720</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>33</v>
@@ -10577,40 +10703,51 @@
         <v>99003720</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>34</v>
       </c>
       <c r="E64">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F64">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G64">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I64">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J64">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K64">
-        <v>65554</v>
+        <v>34</v>
       </c>
       <c r="L64">
-        <v>622651</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>6512516</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>99004720</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -10623,8 +10760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Practice_problem/sheets.xlsx
+++ b/Practice_problem/sheets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Master" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -665,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -8109,8 +8108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10754,19 +10753,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
-</worksheet>
 </file>
--- a/Practice_problem/sheets.xlsx
+++ b/Practice_problem/sheets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Python\Practice_problem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\PycharmProjects\Python_Practice\Practice_problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -303,11 +303,14 @@
   <si>
     <t>Data50</t>
   </si>
+  <si>
+    <t>rashma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +760,7 @@
         <v>99003722</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2513,6 +2516,17 @@
       </c>
       <c r="M45" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>99003734</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -8106,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10749,6 +10763,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>99005050</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
